--- a/Examples/AcPowerSystem/IEEE_14Bus/IEEE_14Bus.xlsx
+++ b/Examples/AcPowerSystem/IEEE_14Bus/IEEE_14Bus.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Power-System-Analysis-Toolbox\Examples\AcPowerSystem\IEEE_14Bus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8EFC657-D16F-4F5A-A8B8-892CCF465576}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EBD15D4-907E-4F51-85A0-38EB06968275}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="368" yWindow="368" windowWidth="14399" windowHeight="7372" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bus" sheetId="1" r:id="rId1"/>
-    <sheet name="Device" sheetId="3" r:id="rId2"/>
+    <sheet name="Apparatus" sheetId="3" r:id="rId2"/>
     <sheet name="NetworkLine_IEEE" sheetId="5" r:id="rId3"/>
     <sheet name="NetworkLine" sheetId="2" r:id="rId4"/>
     <sheet name="Basic" sheetId="4" r:id="rId5"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="50">
   <si>
     <t>R (pu)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -124,14 +124,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Device type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Device parameters</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Enable (create simulink model)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -233,6 +225,18 @@
   </si>
   <si>
     <t>AC or DC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Apparatus type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Apparatus parameters</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This sheet summarizes the apparatuses connected to buses.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -628,16 +632,16 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>12</v>
@@ -658,10 +662,10 @@
         <v>17</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.4">
@@ -1241,9 +1245,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34645F5B-1D7A-4323-9AD6-5FF81941CA24}">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
@@ -1265,7 +1267,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.4">
@@ -1273,10 +1275,10 @@
         <v>20</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.4">
@@ -1488,15 +1490,15 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>0</v>
@@ -1505,13 +1507,13 @@
         <v>10</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
@@ -2008,10 +2010,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>0</v>
@@ -2026,7 +2028,7 @@
         <v>3</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -2068,7 +2070,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B3" s="2">
         <v>60</v>
@@ -2076,7 +2078,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -2084,7 +2086,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -2101,7 +2103,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EFCB373-2341-40B6-A375-7BA50357479A}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
@@ -2117,16 +2119,16 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C2" s="3"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -2134,7 +2136,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -2142,7 +2144,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -2150,7 +2152,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -2158,7 +2160,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -2166,7 +2168,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -2174,7 +2176,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -2182,7 +2184,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -2190,7 +2192,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -2198,7 +2200,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B12">
         <v>0</v>

--- a/Examples/AcPowerSystem/IEEE_14Bus/IEEE_14Bus.xlsx
+++ b/Examples/AcPowerSystem/IEEE_14Bus/IEEE_14Bus.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Power-System-Analysis-Toolbox\Examples\AcPowerSystem\IEEE_14Bus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EBD15D4-907E-4F51-85A0-38EB06968275}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7979F36-F4A0-4B17-917C-A9D3D80B6F57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bus" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="49">
   <si>
     <t>R (pu)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -65,10 +65,6 @@
   </si>
   <si>
     <t>Samping frequency (Hz)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>This sheet summarizes the devices connected to buses.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -614,8 +610,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -632,40 +628,40 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>34</v>
-      </c>
       <c r="C2" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="K2" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L2" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.4">
@@ -1088,7 +1084,7 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -1128,7 +1124,7 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -1168,7 +1164,7 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -1245,7 +1241,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34645F5B-1D7A-4323-9AD6-5FF81941CA24}">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
@@ -1267,18 +1263,18 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.4">
@@ -1463,8 +1459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64D00B5E-E2E7-41B8-8388-8931D474EA96}">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1475,12 +1471,12 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
@@ -1490,30 +1486,30 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>37</v>
-      </c>
       <c r="C5" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
@@ -2010,10 +2006,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>0</v>
@@ -2028,7 +2024,7 @@
         <v>3</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -2056,7 +2052,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
@@ -2070,7 +2066,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B3" s="2">
         <v>60</v>
@@ -2078,7 +2074,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -2086,7 +2082,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -2103,8 +2099,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EFCB373-2341-40B6-A375-7BA50357479A}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -2114,21 +2110,21 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>40</v>
       </c>
       <c r="C2" s="3"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -2136,7 +2132,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -2144,7 +2140,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -2152,7 +2148,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -2160,7 +2156,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -2168,7 +2164,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -2176,7 +2172,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -2184,7 +2180,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -2192,7 +2188,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -2200,7 +2196,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B12">
         <v>0</v>

--- a/Examples/AcPowerSystem/IEEE_14Bus/IEEE_14Bus.xlsx
+++ b/Examples/AcPowerSystem/IEEE_14Bus/IEEE_14Bus.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Power-System-Analysis-Toolbox\Examples\AcPowerSystem\IEEE_14Bus\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\Git\Simplex-Power-Systems\Examples\AcPowerSystem\IEEE_14Bus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EBD15D4-907E-4F51-85A0-38EB06968275}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE131A61-AE22-4666-8850-6DF3DDF00FC8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bus" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="50">
   <si>
     <t>R (pu)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -68,10 +68,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>This sheet summarizes the devices connected to buses.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>This sheet summarizes the parameters for network line impedance in IEEE form.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -238,6 +234,9 @@
   <si>
     <t>This sheet summarizes the apparatuses connected to buses.</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inf</t>
   </si>
 </sst>
 </file>
@@ -245,20 +244,20 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="177" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.00_ "/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -267,7 +266,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -275,7 +274,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -283,7 +282,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -291,13 +290,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -325,13 +324,13 @@
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -615,60 +614,60 @@
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="4" width="11.19921875" customWidth="1"/>
-    <col min="9" max="9" width="10.796875" customWidth="1"/>
-    <col min="10" max="10" width="11.1328125" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" customWidth="1"/>
+    <col min="10" max="10" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12">
       <c r="A1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:12">
       <c r="A2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>34</v>
-      </c>
       <c r="C2" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="K2" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L2" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="L2" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -706,7 +705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:12">
       <c r="A4" s="6">
         <v>2</v>
       </c>
@@ -750,7 +749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:12">
       <c r="A5" s="6">
         <v>3</v>
       </c>
@@ -792,7 +791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:12">
       <c r="A6" s="7">
         <v>4</v>
       </c>
@@ -832,7 +831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:12">
       <c r="A7" s="7">
         <v>5</v>
       </c>
@@ -872,7 +871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:12">
       <c r="A8" s="6">
         <v>6</v>
       </c>
@@ -915,7 +914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:12">
       <c r="A9" s="7">
         <v>7</v>
       </c>
@@ -953,7 +952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:12">
       <c r="A10" s="6">
         <v>8</v>
       </c>
@@ -994,7 +993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:12">
       <c r="A11" s="7">
         <v>9</v>
       </c>
@@ -1034,7 +1033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:12">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1074,7 +1073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:12">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1088,7 +1087,7 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -1114,7 +1113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:12">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1128,7 +1127,7 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -1154,7 +1153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:12">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1168,7 +1167,7 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -1194,7 +1193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:12">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1245,43 +1244,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34645F5B-1D7A-4323-9AD6-5FF81941CA24}">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.796875" customWidth="1"/>
-    <col min="2" max="2" width="29.53125" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" customWidth="1"/>
+    <col min="2" max="2" width="29.5703125" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="15.19921875" customWidth="1"/>
-    <col min="5" max="5" width="12.46484375" customWidth="1"/>
-    <col min="6" max="6" width="13.53125" customWidth="1"/>
-    <col min="7" max="7" width="13.796875" customWidth="1"/>
-    <col min="8" max="8" width="15.1328125" customWidth="1"/>
-    <col min="9" max="9" width="18.796875" customWidth="1"/>
-    <col min="10" max="10" width="18.53125" customWidth="1"/>
-    <col min="11" max="11" width="17.1328125" customWidth="1"/>
-    <col min="12" max="12" width="17.86328125" customWidth="1"/>
-    <col min="13" max="13" width="14.46484375" customWidth="1"/>
-    <col min="14" max="14" width="13.1328125" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" customWidth="1"/>
+    <col min="9" max="9" width="18.85546875" customWidth="1"/>
+    <col min="10" max="10" width="18.5703125" customWidth="1"/>
+    <col min="11" max="11" width="17.140625" customWidth="1"/>
+    <col min="12" max="12" width="17.85546875" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" customWidth="1"/>
+    <col min="14" max="14" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10">
       <c r="A1" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -1299,7 +1298,7 @@
       <c r="I3" s="8"/>
       <c r="J3" s="2"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10">
       <c r="A4" s="6">
         <v>2</v>
       </c>
@@ -1317,7 +1316,7 @@
       <c r="I4" s="8"/>
       <c r="J4" s="2"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10">
       <c r="A5" s="6">
         <v>3</v>
       </c>
@@ -1334,7 +1333,7 @@
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1345,7 +1344,7 @@
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1356,7 +1355,7 @@
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:10">
       <c r="A8" s="6">
         <v>6</v>
       </c>
@@ -1373,7 +1372,7 @@
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:10">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1384,7 +1383,7 @@
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:10">
       <c r="A10" s="6">
         <v>8</v>
       </c>
@@ -1401,7 +1400,7 @@
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:10">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1412,7 +1411,7 @@
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:10">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1420,7 +1419,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:10">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1428,7 +1427,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:10">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1436,7 +1435,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:10">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1444,7 +1443,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:10">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1461,62 +1460,62 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64D00B5E-E2E7-41B8-8388-8931D474EA96}">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="5" max="5" width="10.1328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.53125" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7">
       <c r="A1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A2" s="3" t="s">
+    <row r="3" spans="1:7">
+      <c r="A3" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A3" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A4" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A5" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="E5" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>1</v>
       </c>
@@ -1540,7 +1539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>1</v>
       </c>
@@ -1564,7 +1563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>2</v>
       </c>
@@ -1588,7 +1587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>2</v>
       </c>
@@ -1612,7 +1611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>2</v>
       </c>
@@ -1636,7 +1635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>3</v>
       </c>
@@ -1660,7 +1659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7">
       <c r="A12">
         <v>4</v>
       </c>
@@ -1683,7 +1682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7">
       <c r="A13">
         <v>4</v>
       </c>
@@ -1706,7 +1705,7 @@
         <v>0.97799999999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7">
       <c r="A14">
         <v>4</v>
       </c>
@@ -1729,7 +1728,7 @@
         <v>0.96899999999999997</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7">
       <c r="A15">
         <v>5</v>
       </c>
@@ -1752,7 +1751,7 @@
         <v>0.93200000000000005</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7">
       <c r="A16">
         <v>6</v>
       </c>
@@ -1775,7 +1774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:7">
       <c r="A17">
         <v>6</v>
       </c>
@@ -1798,7 +1797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:7">
       <c r="A18">
         <v>6</v>
       </c>
@@ -1821,7 +1820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:7">
       <c r="A19">
         <v>7</v>
       </c>
@@ -1844,7 +1843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:7">
       <c r="A20">
         <v>7</v>
       </c>
@@ -1867,7 +1866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:7">
       <c r="A21">
         <v>9</v>
       </c>
@@ -1890,7 +1889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:7">
       <c r="A22">
         <v>9</v>
       </c>
@@ -1913,7 +1912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:7">
       <c r="A23">
         <v>10</v>
       </c>
@@ -1936,7 +1935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:7">
       <c r="A24">
         <v>12</v>
       </c>
@@ -1959,7 +1958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:7">
       <c r="A25">
         <v>13</v>
       </c>
@@ -1979,6 +1978,29 @@
         <v>0</v>
       </c>
       <c r="G25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26">
+        <v>9</v>
+      </c>
+      <c r="B26">
+        <v>9</v>
+      </c>
+      <c r="C26" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26" t="s">
+        <v>49</v>
+      </c>
+      <c r="E26">
+        <v>0.19</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
         <v>1</v>
       </c>
     </row>
@@ -1997,23 +2019,23 @@
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="7" max="7" width="14.86328125" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7">
       <c r="A2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>0</v>
@@ -2028,7 +2050,7 @@
         <v>3</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -2046,20 +2068,20 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
-    <col min="2" max="2" width="18.53125" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="15.796875" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2">
       <c r="A1" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
@@ -2068,25 +2090,25 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B3" s="2">
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
         <v>31</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
-        <v>32</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -2103,104 +2125,104 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EFCB373-2341-40B6-A375-7BA50357479A}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="30.1328125" customWidth="1"/>
+    <col min="1" max="1" width="30.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3">
       <c r="A1" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>40</v>
-      </c>
       <c r="C2" s="3"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
         <v>27</v>
       </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
+      <c r="B6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
         <v>28</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
-        <v>29</v>
       </c>
       <c r="B7">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
         <v>21</v>
       </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
+      <c r="B9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
         <v>22</v>
       </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
+      <c r="B10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
         <v>23</v>
       </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A11" t="s">
-        <v>24</v>
-      </c>
       <c r="B11">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B12">
         <v>0</v>

--- a/Examples/AcPowerSystem/IEEE_14Bus/IEEE_14Bus.xlsx
+++ b/Examples/AcPowerSystem/IEEE_14Bus/IEEE_14Bus.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\Git\Simplex-Power-Systems\Examples\AcPowerSystem\IEEE_14Bus\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Power-System-Analysis-Toolbox\Examples\AcPowerSystem\IEEE_14Bus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE131A61-AE22-4666-8850-6DF3DDF00FC8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC01260E-33BB-46C9-9DF2-17A216667816}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bus" sheetId="1" r:id="rId1"/>
@@ -244,20 +244,20 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="0.00_ "/>
-    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="0.000"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -266,7 +266,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -274,7 +274,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -282,7 +282,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -290,13 +290,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -324,13 +324,13 @@
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -617,19 +617,19 @@
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="4" max="4" width="11.140625" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" customWidth="1"/>
-    <col min="10" max="10" width="11.140625" customWidth="1"/>
+    <col min="4" max="4" width="11.1328125" customWidth="1"/>
+    <col min="9" max="9" width="10.86328125" customWidth="1"/>
+    <col min="10" max="10" width="11.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>32</v>
       </c>
@@ -667,7 +667,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -705,7 +705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A4" s="6">
         <v>2</v>
       </c>
@@ -749,7 +749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A5" s="6">
         <v>3</v>
       </c>
@@ -791,7 +791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A6" s="7">
         <v>4</v>
       </c>
@@ -831,7 +831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A7" s="7">
         <v>5</v>
       </c>
@@ -871,7 +871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A8" s="6">
         <v>6</v>
       </c>
@@ -914,7 +914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A9" s="7">
         <v>7</v>
       </c>
@@ -952,7 +952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A10" s="6">
         <v>8</v>
       </c>
@@ -993,7 +993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A11" s="7">
         <v>9</v>
       </c>
@@ -1033,7 +1033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1073,7 +1073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1113,7 +1113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1153,7 +1153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1193,7 +1193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1242,34 +1242,36 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34645F5B-1D7A-4323-9AD6-5FF81941CA24}">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" customWidth="1"/>
-    <col min="2" max="2" width="29.5703125" customWidth="1"/>
+    <col min="1" max="1" width="12.86328125" customWidth="1"/>
+    <col min="2" max="2" width="29.59765625" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" customWidth="1"/>
-    <col min="9" max="9" width="18.85546875" customWidth="1"/>
-    <col min="10" max="10" width="18.5703125" customWidth="1"/>
-    <col min="11" max="11" width="17.140625" customWidth="1"/>
-    <col min="12" max="12" width="17.85546875" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" customWidth="1"/>
-    <col min="14" max="14" width="13.140625" customWidth="1"/>
+    <col min="4" max="4" width="15.1328125" customWidth="1"/>
+    <col min="5" max="5" width="12.3984375" customWidth="1"/>
+    <col min="6" max="6" width="13.59765625" customWidth="1"/>
+    <col min="7" max="7" width="13.86328125" customWidth="1"/>
+    <col min="8" max="8" width="15.1328125" customWidth="1"/>
+    <col min="9" max="9" width="18.86328125" customWidth="1"/>
+    <col min="10" max="10" width="18.59765625" customWidth="1"/>
+    <col min="11" max="11" width="17.1328125" customWidth="1"/>
+    <col min="12" max="12" width="17.86328125" customWidth="1"/>
+    <col min="13" max="13" width="14.3984375" customWidth="1"/>
+    <col min="14" max="14" width="13.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>19</v>
       </c>
@@ -1280,8 +1282,8 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="6">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A3" s="7">
         <v>1</v>
       </c>
       <c r="B3">
@@ -1298,8 +1300,8 @@
       <c r="I3" s="8"/>
       <c r="J3" s="2"/>
     </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="6">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A4" s="7">
         <v>2</v>
       </c>
       <c r="B4">
@@ -1316,8 +1318,8 @@
       <c r="I4" s="8"/>
       <c r="J4" s="2"/>
     </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="6">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A5" s="7">
         <v>3</v>
       </c>
       <c r="B5">
@@ -1333,123 +1335,39 @@
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
     </row>
-    <row r="6" spans="1:10">
-      <c r="A6">
-        <v>4</v>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A6" s="7">
+        <v>6</v>
       </c>
       <c r="B6">
-        <v>100</v>
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>3.5</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
       </c>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
     </row>
-    <row r="7" spans="1:10">
-      <c r="A7">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A7" s="7">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>3.5</v>
+      </c>
+      <c r="D7">
         <v>5</v>
-      </c>
-      <c r="B7">
-        <v>100</v>
       </c>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="6">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>3.5</v>
-      </c>
-      <c r="D8">
-        <v>5</v>
-      </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>100</v>
-      </c>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="6">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>3.5</v>
-      </c>
-      <c r="D10">
-        <v>5</v>
-      </c>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>100</v>
-      </c>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15">
-        <v>13</v>
-      </c>
-      <c r="B15">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16">
-        <v>14</v>
-      </c>
-      <c r="B16">
-        <v>100</v>
-      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1466,33 +1384,33 @@
       <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" customWidth="1"/>
+    <col min="5" max="5" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
         <v>35</v>
       </c>
@@ -1515,7 +1433,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>1</v>
       </c>
@@ -1539,7 +1457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>1</v>
       </c>
@@ -1563,7 +1481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>2</v>
       </c>
@@ -1587,7 +1505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>2</v>
       </c>
@@ -1611,7 +1529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>2</v>
       </c>
@@ -1635,7 +1553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>3</v>
       </c>
@@ -1659,7 +1577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>4</v>
       </c>
@@ -1682,7 +1600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>4</v>
       </c>
@@ -1705,7 +1623,7 @@
         <v>0.97799999999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>4</v>
       </c>
@@ -1728,7 +1646,7 @@
         <v>0.96899999999999997</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>5</v>
       </c>
@@ -1751,7 +1669,7 @@
         <v>0.93200000000000005</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>6</v>
       </c>
@@ -1774,7 +1692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>6</v>
       </c>
@@ -1797,7 +1715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>6</v>
       </c>
@@ -1820,7 +1738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>7</v>
       </c>
@@ -1843,7 +1761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>7</v>
       </c>
@@ -1866,7 +1784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>9</v>
       </c>
@@ -1889,7 +1807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>9</v>
       </c>
@@ -1912,7 +1830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>10</v>
       </c>
@@ -1935,7 +1853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>12</v>
       </c>
@@ -1958,7 +1876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>13</v>
       </c>
@@ -1981,7 +1899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>9</v>
       </c>
@@ -2019,18 +1937,18 @@
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" customWidth="1"/>
+    <col min="7" max="7" width="14.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>35</v>
       </c>
@@ -2068,20 +1986,20 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" customWidth="1"/>
+    <col min="2" max="2" width="18.59765625" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" customWidth="1"/>
+    <col min="4" max="4" width="15.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
@@ -2090,7 +2008,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>29</v>
       </c>
@@ -2098,7 +2016,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -2106,7 +2024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>31</v>
       </c>
@@ -2125,21 +2043,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EFCB373-2341-40B6-A375-7BA50357479A}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="30.140625" customWidth="1"/>
+    <col min="1" max="1" width="30.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>38</v>
       </c>
@@ -2148,7 +2066,7 @@
       </c>
       <c r="C2" s="3"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -2156,7 +2074,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -2164,7 +2082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -2172,7 +2090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -2180,7 +2098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -2188,7 +2106,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -2196,7 +2114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -2204,7 +2122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -2212,7 +2130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -2220,7 +2138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>41</v>
       </c>

--- a/Examples/AcPowerSystem/IEEE_14Bus/IEEE_14Bus.xlsx
+++ b/Examples/AcPowerSystem/IEEE_14Bus/IEEE_14Bus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Power-System-Analysis-Toolbox\Examples\AcPowerSystem\IEEE_14Bus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC01260E-33BB-46C9-9DF2-17A216667816}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EC67619-0F1A-4CB5-B05A-14ECCCB6AE8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1245,7 +1245,7 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>

--- a/Examples/AcPowerSystem/IEEE_14Bus/IEEE_14Bus.xlsx
+++ b/Examples/AcPowerSystem/IEEE_14Bus/IEEE_14Bus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Power-System-Analysis-Toolbox\Examples\AcPowerSystem\IEEE_14Bus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EC67619-0F1A-4CB5-B05A-14ECCCB6AE8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B36A9FBF-0ED0-4D4F-92F8-EDDE2C8215D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1245,7 +1245,7 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1295,6 +1295,12 @@
       <c r="D3">
         <v>5</v>
       </c>
+      <c r="E3">
+        <v>0.1</v>
+      </c>
+      <c r="F3">
+        <v>0.01</v>
+      </c>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
@@ -1313,6 +1319,12 @@
       <c r="D4">
         <v>5</v>
       </c>
+      <c r="E4">
+        <v>0.1</v>
+      </c>
+      <c r="F4">
+        <v>0.01</v>
+      </c>
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
@@ -1331,6 +1343,12 @@
       <c r="D5">
         <v>5</v>
       </c>
+      <c r="E5">
+        <v>0.1</v>
+      </c>
+      <c r="F5">
+        <v>0.01</v>
+      </c>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
@@ -1348,6 +1366,12 @@
       <c r="D6">
         <v>5</v>
       </c>
+      <c r="E6">
+        <v>0.1</v>
+      </c>
+      <c r="F6">
+        <v>0.01</v>
+      </c>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
@@ -1364,6 +1388,12 @@
       </c>
       <c r="D7">
         <v>5</v>
+      </c>
+      <c r="E7">
+        <v>0.1</v>
+      </c>
+      <c r="F7">
+        <v>0.01</v>
       </c>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
@@ -1983,7 +2013,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -2004,8 +2034,8 @@
         <v>6</v>
       </c>
       <c r="B2" s="1">
-        <f>B3*1000/2</f>
-        <v>30000</v>
+        <f>B3*200</f>
+        <v>12000</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">

--- a/Examples/AcPowerSystem/IEEE_14Bus/IEEE_14Bus.xlsx
+++ b/Examples/AcPowerSystem/IEEE_14Bus/IEEE_14Bus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Power-System-Analysis-Toolbox\Examples\AcPowerSystem\IEEE_14Bus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B36A9FBF-0ED0-4D4F-92F8-EDDE2C8215D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C711BCA9-472B-46EA-9163-D8F4DB11A35F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2013,7 +2013,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -2034,8 +2034,8 @@
         <v>6</v>
       </c>
       <c r="B2" s="1">
-        <f>B3*200</f>
-        <v>12000</v>
+        <f>B3*500</f>
+        <v>30000</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">

--- a/Examples/AcPowerSystem/IEEE_14Bus/IEEE_14Bus.xlsx
+++ b/Examples/AcPowerSystem/IEEE_14Bus/IEEE_14Bus.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Power-System-Analysis-Toolbox\Examples\AcPowerSystem\IEEE_14Bus\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\Git\Simplex-Power-Systems-2\Examples\AcPowerSystem\IEEE_14Bus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C711BCA9-472B-46EA-9163-D8F4DB11A35F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A87FAAB7-FCA0-4493-80E2-AE4D3A95408E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5925" yWindow="2910" windowWidth="21600" windowHeight="11385" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bus" sheetId="1" r:id="rId1"/>
@@ -244,20 +244,20 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="177" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.00_ "/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -266,7 +266,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -274,7 +274,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -282,7 +282,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -290,13 +290,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -324,13 +324,13 @@
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -617,19 +617,19 @@
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="4" width="11.1328125" customWidth="1"/>
-    <col min="9" max="9" width="10.86328125" customWidth="1"/>
-    <col min="10" max="10" width="11.1328125" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" customWidth="1"/>
+    <col min="10" max="10" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12">
       <c r="A1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:12">
       <c r="A2" s="3" t="s">
         <v>32</v>
       </c>
@@ -667,7 +667,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:12">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -705,7 +705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:12">
       <c r="A4" s="6">
         <v>2</v>
       </c>
@@ -749,7 +749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:12">
       <c r="A5" s="6">
         <v>3</v>
       </c>
@@ -791,7 +791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:12">
       <c r="A6" s="7">
         <v>4</v>
       </c>
@@ -831,7 +831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:12">
       <c r="A7" s="7">
         <v>5</v>
       </c>
@@ -871,7 +871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:12">
       <c r="A8" s="6">
         <v>6</v>
       </c>
@@ -914,7 +914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:12">
       <c r="A9" s="7">
         <v>7</v>
       </c>
@@ -952,7 +952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:12">
       <c r="A10" s="6">
         <v>8</v>
       </c>
@@ -993,7 +993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:12">
       <c r="A11" s="7">
         <v>9</v>
       </c>
@@ -1033,7 +1033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:12">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1073,7 +1073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:12">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1113,7 +1113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:12">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1153,7 +1153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:12">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1193,7 +1193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:12">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1244,34 +1244,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34645F5B-1D7A-4323-9AD6-5FF81941CA24}">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.86328125" customWidth="1"/>
-    <col min="2" max="2" width="29.59765625" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" customWidth="1"/>
+    <col min="2" max="2" width="29.5703125" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="15.1328125" customWidth="1"/>
-    <col min="5" max="5" width="12.3984375" customWidth="1"/>
-    <col min="6" max="6" width="13.59765625" customWidth="1"/>
-    <col min="7" max="7" width="13.86328125" customWidth="1"/>
-    <col min="8" max="8" width="15.1328125" customWidth="1"/>
-    <col min="9" max="9" width="18.86328125" customWidth="1"/>
-    <col min="10" max="10" width="18.59765625" customWidth="1"/>
-    <col min="11" max="11" width="17.1328125" customWidth="1"/>
-    <col min="12" max="12" width="17.86328125" customWidth="1"/>
-    <col min="13" max="13" width="14.3984375" customWidth="1"/>
-    <col min="14" max="14" width="13.1328125" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" customWidth="1"/>
+    <col min="9" max="9" width="18.85546875" customWidth="1"/>
+    <col min="10" max="10" width="18.5703125" customWidth="1"/>
+    <col min="11" max="11" width="17.140625" customWidth="1"/>
+    <col min="12" max="12" width="17.85546875" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" customWidth="1"/>
+    <col min="14" max="14" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10">
       <c r="A1" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10">
       <c r="A2" s="3" t="s">
         <v>19</v>
       </c>
@@ -1282,7 +1282,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -1306,7 +1306,7 @@
       <c r="I3" s="8"/>
       <c r="J3" s="2"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10">
       <c r="A4" s="7">
         <v>2</v>
       </c>
@@ -1330,7 +1330,7 @@
       <c r="I4" s="8"/>
       <c r="J4" s="2"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10">
       <c r="A5" s="7">
         <v>3</v>
       </c>
@@ -1353,7 +1353,7 @@
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10">
       <c r="A6" s="7">
         <v>6</v>
       </c>
@@ -1376,7 +1376,7 @@
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10">
       <c r="A7" s="7">
         <v>8</v>
       </c>
@@ -1414,33 +1414,33 @@
       <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="5" max="5" width="10.1328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.59765625" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7">
       <c r="A1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7">
       <c r="A3" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7">
       <c r="A4" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7">
       <c r="A5" s="3" t="s">
         <v>35</v>
       </c>
@@ -1463,7 +1463,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>1</v>
       </c>
@@ -1487,7 +1487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>1</v>
       </c>
@@ -1511,7 +1511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>2</v>
       </c>
@@ -1535,7 +1535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>2</v>
       </c>
@@ -1559,7 +1559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>2</v>
       </c>
@@ -1583,7 +1583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>3</v>
       </c>
@@ -1607,7 +1607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7">
       <c r="A12">
         <v>4</v>
       </c>
@@ -1630,7 +1630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7">
       <c r="A13">
         <v>4</v>
       </c>
@@ -1653,7 +1653,7 @@
         <v>0.97799999999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7">
       <c r="A14">
         <v>4</v>
       </c>
@@ -1676,7 +1676,7 @@
         <v>0.96899999999999997</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7">
       <c r="A15">
         <v>5</v>
       </c>
@@ -1699,7 +1699,7 @@
         <v>0.93200000000000005</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7">
       <c r="A16">
         <v>6</v>
       </c>
@@ -1722,7 +1722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:7">
       <c r="A17">
         <v>6</v>
       </c>
@@ -1745,7 +1745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:7">
       <c r="A18">
         <v>6</v>
       </c>
@@ -1768,7 +1768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:7">
       <c r="A19">
         <v>7</v>
       </c>
@@ -1791,7 +1791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:7">
       <c r="A20">
         <v>7</v>
       </c>
@@ -1814,7 +1814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:7">
       <c r="A21">
         <v>9</v>
       </c>
@@ -1837,7 +1837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:7">
       <c r="A22">
         <v>9</v>
       </c>
@@ -1860,7 +1860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:7">
       <c r="A23">
         <v>10</v>
       </c>
@@ -1883,7 +1883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:7">
       <c r="A24">
         <v>12</v>
       </c>
@@ -1906,7 +1906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:7">
       <c r="A25">
         <v>13</v>
       </c>
@@ -1929,7 +1929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:7">
       <c r="A26">
         <v>9</v>
       </c>
@@ -1967,18 +1967,18 @@
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="7" max="7" width="14.86328125" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7">
       <c r="A2" s="3" t="s">
         <v>35</v>
       </c>
@@ -2016,20 +2016,20 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
-    <col min="2" max="2" width="18.59765625" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="15.86328125" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2">
       <c r="A1" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2">
       <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
@@ -2038,7 +2038,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>29</v>
       </c>
@@ -2046,7 +2046,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -2054,7 +2054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>31</v>
       </c>
@@ -2073,21 +2073,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EFCB373-2341-40B6-A375-7BA50357479A}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="30.1328125" customWidth="1"/>
+    <col min="1" max="1" width="30.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3">
       <c r="A1" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
         <v>38</v>
       </c>
@@ -2096,7 +2096,7 @@
       </c>
       <c r="C2" s="3"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -2104,7 +2104,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -2112,7 +2112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -2120,7 +2120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -2128,7 +2128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -2136,15 +2136,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>20</v>
       </c>
       <c r="B8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -2152,7 +2152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -2160,7 +2160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -2168,12 +2168,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>41</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Examples/AcPowerSystem/IEEE_14Bus/IEEE_14Bus.xlsx
+++ b/Examples/AcPowerSystem/IEEE_14Bus/IEEE_14Bus.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Power-System-Analysis-Toolbox\Examples\AcPowerSystem\IEEE_14Bus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C711BCA9-472B-46EA-9163-D8F4DB11A35F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E180F78-30C4-444B-8BE7-A9C99C19A218}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bus" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="51">
   <si>
     <t>R (pu)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -237,6 +237,10 @@
   </si>
   <si>
     <t>inf</t>
+  </si>
+  <si>
+    <t>inf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -613,8 +617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -719,8 +723,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <f>40/100</f>
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="F4">
         <f>42.4/100</f>
@@ -735,12 +738,10 @@
         <v>0.127</v>
       </c>
       <c r="I4">
-        <f>-40/100</f>
-        <v>-0.4</v>
+        <v>-999</v>
       </c>
       <c r="J4">
-        <f>50/100</f>
-        <v>0.5</v>
+        <v>999</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -763,7 +764,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F5">
         <f>23.4/100</f>
@@ -778,11 +779,10 @@
         <v>0.19</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>-999</v>
       </c>
       <c r="J5">
-        <f>40/100</f>
-        <v>0.4</v>
+        <v>999</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F8">
         <f>12.2/100</f>
@@ -900,12 +900,10 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="I8">
-        <f>-6/100</f>
-        <v>-0.06</v>
+        <v>-999</v>
       </c>
       <c r="J8">
-        <f>24/100</f>
-        <v>0.24</v>
+        <v>999</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -966,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F10">
         <f>17.4/100</f>
@@ -979,12 +977,10 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <f>-6/100</f>
-        <v>-0.06</v>
+        <v>-999</v>
       </c>
       <c r="J10">
-        <f>24/100</f>
-        <v>0.24</v>
+        <v>999</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1244,8 +1240,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34645F5B-1D7A-4323-9AD6-5FF81941CA24}">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1408,10 +1404,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64D00B5E-E2E7-41B8-8388-8931D474EA96}">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1650,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.97799999999999998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.4">
@@ -1673,7 +1669,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.96899999999999997</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.4">
@@ -1696,7 +1692,7 @@
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.93200000000000005</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.4">
@@ -1949,6 +1945,190 @@
         <v>0</v>
       </c>
       <c r="G26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A27">
+        <v>6</v>
+      </c>
+      <c r="B27">
+        <v>6</v>
+      </c>
+      <c r="C27" t="s">
+        <v>50</v>
+      </c>
+      <c r="D27" t="s">
+        <v>50</v>
+      </c>
+      <c r="E27" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A28">
+        <v>7</v>
+      </c>
+      <c r="B28">
+        <v>7</v>
+      </c>
+      <c r="C28" t="s">
+        <v>50</v>
+      </c>
+      <c r="D28" t="s">
+        <v>50</v>
+      </c>
+      <c r="E28" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A29">
+        <v>8</v>
+      </c>
+      <c r="B29">
+        <v>8</v>
+      </c>
+      <c r="C29" t="s">
+        <v>50</v>
+      </c>
+      <c r="D29" t="s">
+        <v>50</v>
+      </c>
+      <c r="E29" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A30">
+        <v>10</v>
+      </c>
+      <c r="B30">
+        <v>10</v>
+      </c>
+      <c r="C30" t="s">
+        <v>50</v>
+      </c>
+      <c r="D30" t="s">
+        <v>50</v>
+      </c>
+      <c r="E30" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A31">
+        <v>11</v>
+      </c>
+      <c r="B31">
+        <v>11</v>
+      </c>
+      <c r="C31" t="s">
+        <v>50</v>
+      </c>
+      <c r="D31" t="s">
+        <v>50</v>
+      </c>
+      <c r="E31" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A32">
+        <v>12</v>
+      </c>
+      <c r="B32">
+        <v>12</v>
+      </c>
+      <c r="C32" t="s">
+        <v>50</v>
+      </c>
+      <c r="D32" t="s">
+        <v>50</v>
+      </c>
+      <c r="E32" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A33">
+        <v>13</v>
+      </c>
+      <c r="B33">
+        <v>13</v>
+      </c>
+      <c r="C33" t="s">
+        <v>50</v>
+      </c>
+      <c r="D33" t="s">
+        <v>50</v>
+      </c>
+      <c r="E33" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A34">
+        <v>14</v>
+      </c>
+      <c r="B34">
+        <v>14</v>
+      </c>
+      <c r="C34" t="s">
+        <v>50</v>
+      </c>
+      <c r="D34" t="s">
+        <v>50</v>
+      </c>
+      <c r="E34" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
         <v>1</v>
       </c>
     </row>
@@ -2074,7 +2254,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -2157,7 +2337,7 @@
         <v>22</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.4">

--- a/Examples/AcPowerSystem/IEEE_14Bus/IEEE_14Bus.xlsx
+++ b/Examples/AcPowerSystem/IEEE_14Bus/IEEE_14Bus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Power-System-Analysis-Toolbox\Examples\AcPowerSystem\IEEE_14Bus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E180F78-30C4-444B-8BE7-A9C99C19A218}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A7876F3-A452-4D08-865C-605E4D021F9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bus" sheetId="1" r:id="rId1"/>
@@ -617,8 +617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1406,8 +1406,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64D00B5E-E2E7-41B8-8388-8931D474EA96}">
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1633,8 +1633,9 @@
       <c r="B13">
         <v>7</v>
       </c>
-      <c r="C13">
-        <v>0</v>
+      <c r="C13" s="6">
+        <f>D13/10</f>
+        <v>2.0912E-2</v>
       </c>
       <c r="D13">
         <v>0.20912</v>
@@ -1656,8 +1657,9 @@
       <c r="B14">
         <v>9</v>
       </c>
-      <c r="C14">
-        <v>0</v>
+      <c r="C14" s="6">
+        <f t="shared" ref="C14:C15" si="0">D14/10</f>
+        <v>5.5618000000000001E-2</v>
       </c>
       <c r="D14">
         <v>0.55618000000000001</v>
@@ -1679,8 +1681,9 @@
       <c r="B15">
         <v>6</v>
       </c>
-      <c r="C15">
-        <v>0</v>
+      <c r="C15" s="6">
+        <f t="shared" si="0"/>
+        <v>2.5202000000000002E-2</v>
       </c>
       <c r="D15">
         <v>0.25202000000000002</v>
@@ -1771,8 +1774,9 @@
       <c r="B19">
         <v>8</v>
       </c>
-      <c r="C19">
-        <v>0</v>
+      <c r="C19" s="6">
+        <f t="shared" ref="C19:C20" si="1">D19/10</f>
+        <v>1.7614999999999999E-2</v>
       </c>
       <c r="D19">
         <v>0.17615</v>
@@ -1794,8 +1798,9 @@
       <c r="B20">
         <v>9</v>
       </c>
-      <c r="C20">
-        <v>0</v>
+      <c r="C20" s="6">
+        <f t="shared" si="1"/>
+        <v>1.1001E-2</v>
       </c>
       <c r="D20">
         <v>0.11001</v>
@@ -2254,7 +2259,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -2321,7 +2326,7 @@
         <v>20</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.4">

--- a/Examples/AcPowerSystem/IEEE_14Bus/IEEE_14Bus.xlsx
+++ b/Examples/AcPowerSystem/IEEE_14Bus/IEEE_14Bus.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Power-System-Analysis-Toolbox\Examples\AcPowerSystem\IEEE_14Bus\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C711BCA9-472B-46EA-9163-D8F4DB11A35F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="11655" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Bus" sheetId="1" r:id="rId1"/>
@@ -22,15 +16,15 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -38,227 +32,177 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="51">
+  <si>
+    <t>This sheet summarizes the parameters for power flow analysis</t>
+  </si>
+  <si>
+    <t>Bus</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Vsp (pu)</t>
+  </si>
+  <si>
+    <t>theta (rad)</t>
+  </si>
+  <si>
+    <t>PGi (pu)</t>
+  </si>
+  <si>
+    <t>QGi (pu)</t>
+  </si>
+  <si>
+    <t>PLi (pu)</t>
+  </si>
+  <si>
+    <t>QLi (pu)</t>
+  </si>
+  <si>
+    <t>Qmin (pu)</t>
+  </si>
+  <si>
+    <t>Qmax (pu)</t>
+  </si>
+  <si>
+    <t>Area No.</t>
+  </si>
+  <si>
+    <t>AC or DC</t>
+  </si>
+  <si>
+    <t>This sheet summarizes the apparatuses connected to buses.</t>
+  </si>
+  <si>
+    <t>Bus number</t>
+  </si>
+  <si>
+    <t>Apparatus type</t>
+  </si>
+  <si>
+    <t>Apparatus parameters</t>
+  </si>
+  <si>
+    <t>2*pi*60</t>
+  </si>
+  <si>
+    <t>This sheet summarizes the parameters for network line impedance in IEEE form.</t>
+  </si>
+  <si>
+    <t>Enable:</t>
+  </si>
+  <si>
+    <t>User data:</t>
+  </si>
+  <si>
+    <t>From bus</t>
+  </si>
+  <si>
+    <t>To bus</t>
+  </si>
   <si>
     <t>R (pu)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X (pu)</t>
+  </si>
+  <si>
+    <t>B (pu)</t>
+  </si>
+  <si>
+    <t>G (pu)</t>
+  </si>
+  <si>
+    <t>Turns Ratio (pu)</t>
+  </si>
+  <si>
+    <t>inf</t>
+  </si>
+  <si>
+    <t>This sheet summarizes the parameters for network line impedance.</t>
   </si>
   <si>
     <t>wL (pu)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>wC (pu)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>G (pu)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>This sheet summarizes the parameters for network line impedance.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>This sheet summarizes the parameters for power flow analysis</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Turns ratio (pu)</t>
+  </si>
+  <si>
+    <t>This sheet summarizes basic settings</t>
   </si>
   <si>
     <t>Samping frequency (Hz)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>This sheet summarizes the parameters for network line impedance in IEEE form.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Enable:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>X (pu)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>This sheet summarizes basic settings</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PGi (pu)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>QGi (pu)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PLi (pu)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>QLi (pu)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Qmin (pu)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Qmax (pu)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Vsp (pu)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Base frequency (Hz)</t>
+  </si>
+  <si>
+    <t>Base power (VA)</t>
+  </si>
+  <si>
+    <t>Base voltage (V)</t>
   </si>
   <si>
     <t>This sheet summaries advanced settings.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bus number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Discretization method</t>
+  </si>
+  <si>
+    <t>Linearization times</t>
+  </si>
+  <si>
+    <t>Discretization damping flag</t>
+  </si>
+  <si>
+    <t>Direct feedthrough</t>
+  </si>
+  <si>
+    <t>Power flow algorithm</t>
   </si>
   <si>
     <t>Enable (create simulink model)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Enable (plot pole map)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Enable (plot admittance)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Enable (print output)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Discretization damping flag</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Discretization method</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Linearization times</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Direct feedthrough</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Power flow algorithm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Base frequency (Hz)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Base power (VA)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Base voltage (V)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bus</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Turns ratio (pu)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>From bus</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>To bus</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>theta (rad)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Item</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Value</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B (pu)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Enable (modal analysis)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>User data:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Turns Ratio (pu)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Area No.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AC or DC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Apparatus type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Apparatus parameters</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>This sheet summarizes the apparatuses connected to buses.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>inf</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="177" formatCode="0.000"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -267,7 +211,12 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -275,15 +224,6 @@
       <b/>
       <sz val="11"/>
       <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -291,25 +231,349 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
-      <family val="2"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -317,32 +581,321 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -391,7 +944,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -426,7 +979,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -600,75 +1153,70 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="4" max="4" width="11.1328125" customWidth="1"/>
-    <col min="9" max="9" width="10.86328125" customWidth="1"/>
-    <col min="10" max="10" width="11.1328125" customWidth="1"/>
+    <col min="4" max="4" width="11.1333333333333" customWidth="1"/>
+    <col min="9" max="9" width="10.8666666666667" customWidth="1"/>
+    <col min="10" max="10" width="11.1333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:1">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="L2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A3" s="6">
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="9">
         <v>1</v>
       </c>
       <c r="B3">
@@ -705,15 +1253,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A4" s="6">
+    <row r="4" spans="1:12">
+      <c r="A4" s="9">
         <v>2</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.0449999999999999</v>
+        <v>1.045</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -724,7 +1272,7 @@
       </c>
       <c r="F4">
         <f>42.4/100</f>
-        <v>0.42399999999999999</v>
+        <v>0.424</v>
       </c>
       <c r="G4">
         <f>21.7/100</f>
@@ -749,8 +1297,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A5" s="6">
+    <row r="5" spans="1:12">
+      <c r="A5" s="9">
         <v>3</v>
       </c>
       <c r="B5">
@@ -767,11 +1315,11 @@
       </c>
       <c r="F5">
         <f>23.4/100</f>
-        <v>0.23399999999999999</v>
+        <v>0.234</v>
       </c>
       <c r="G5">
         <f>94.2/100</f>
-        <v>0.94200000000000006</v>
+        <v>0.942</v>
       </c>
       <c r="H5">
         <f>19/100</f>
@@ -791,8 +1339,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A6" s="7">
+    <row r="6" spans="1:12">
+      <c r="A6" s="5">
         <v>4</v>
       </c>
       <c r="B6">
@@ -812,11 +1360,11 @@
       </c>
       <c r="G6">
         <f>47.8/100</f>
-        <v>0.47799999999999998</v>
+        <v>0.478</v>
       </c>
       <c r="H6">
         <f>-3.9/100</f>
-        <v>-3.9E-2</v>
+        <v>-0.039</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -831,8 +1379,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A7" s="7">
+    <row r="7" spans="1:12">
+      <c r="A7" s="5">
         <v>5</v>
       </c>
       <c r="B7">
@@ -852,11 +1400,11 @@
       </c>
       <c r="G7">
         <f>7.6/100</f>
-        <v>7.5999999999999998E-2</v>
+        <v>0.076</v>
       </c>
       <c r="H7">
         <f>1.6/100</f>
-        <v>1.6E-2</v>
+        <v>0.016</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -871,8 +1419,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A8" s="6">
+    <row r="8" spans="1:12">
+      <c r="A8" s="9">
         <v>6</v>
       </c>
       <c r="B8">
@@ -893,11 +1441,11 @@
       </c>
       <c r="G8">
         <f>11.2/100</f>
-        <v>0.11199999999999999</v>
+        <v>0.112</v>
       </c>
       <c r="H8">
         <f>7.5/100</f>
-        <v>7.4999999999999997E-2</v>
+        <v>0.075</v>
       </c>
       <c r="I8">
         <f>-6/100</f>
@@ -914,8 +1462,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A9" s="7">
+    <row r="9" spans="1:12">
+      <c r="A9" s="5">
         <v>7</v>
       </c>
       <c r="B9">
@@ -952,15 +1500,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A10" s="6">
+    <row r="10" spans="1:12">
+      <c r="A10" s="9">
         <v>8</v>
       </c>
       <c r="B10">
         <v>2</v>
       </c>
       <c r="C10">
-        <v>1.0900000000000001</v>
+        <v>1.09</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -970,7 +1518,7 @@
       </c>
       <c r="F10">
         <f>17.4/100</f>
-        <v>0.17399999999999999</v>
+        <v>0.174</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -993,8 +1541,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A11" s="7">
+    <row r="11" spans="1:12">
+      <c r="A11" s="5">
         <v>9</v>
       </c>
       <c r="B11">
@@ -1014,11 +1562,11 @@
       </c>
       <c r="G11">
         <f>29.5/100</f>
-        <v>0.29499999999999998</v>
+        <v>0.295</v>
       </c>
       <c r="H11">
         <f>16.6/100</f>
-        <v>0.16600000000000001</v>
+        <v>0.166</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -1033,7 +1581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:12">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1058,7 +1606,7 @@
       </c>
       <c r="H12">
         <f>5.8/100</f>
-        <v>5.7999999999999996E-2</v>
+        <v>0.058</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -1073,7 +1621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:12">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1094,11 +1642,11 @@
       </c>
       <c r="G13">
         <f>3.5/100</f>
-        <v>3.5000000000000003E-2</v>
+        <v>0.035</v>
       </c>
       <c r="H13">
         <f>1.8/100</f>
-        <v>1.8000000000000002E-2</v>
+        <v>0.018</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -1113,7 +1661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:12">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1134,11 +1682,11 @@
       </c>
       <c r="G14">
         <f>6.1/100</f>
-        <v>6.0999999999999999E-2</v>
+        <v>0.061</v>
       </c>
       <c r="H14">
         <f>1.6/100</f>
-        <v>1.6E-2</v>
+        <v>0.016</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1153,7 +1701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:12">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1174,11 +1722,11 @@
       </c>
       <c r="G15">
         <f>13.5/100</f>
-        <v>0.13500000000000001</v>
+        <v>0.135</v>
       </c>
       <c r="H15">
         <f>5.8/100</f>
-        <v>5.7999999999999996E-2</v>
+        <v>0.058</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1193,7 +1741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:12">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1214,7 +1762,7 @@
       </c>
       <c r="G16">
         <f>14.9/100</f>
-        <v>0.14899999999999999</v>
+        <v>0.149</v>
       </c>
       <c r="H16">
         <f>5/100</f>
@@ -1234,236 +1782,476 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34645F5B-1D7A-4323-9AD6-5FF81941CA24}">
-  <dimension ref="A1:J7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:W7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6"/>
   <cols>
-    <col min="1" max="1" width="12.86328125" customWidth="1"/>
-    <col min="2" max="2" width="29.59765625" customWidth="1"/>
+    <col min="1" max="1" width="12.8666666666667" customWidth="1"/>
+    <col min="2" max="2" width="29.6" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="15.1328125" customWidth="1"/>
-    <col min="5" max="5" width="12.3984375" customWidth="1"/>
-    <col min="6" max="6" width="13.59765625" customWidth="1"/>
-    <col min="7" max="7" width="13.86328125" customWidth="1"/>
-    <col min="8" max="8" width="15.1328125" customWidth="1"/>
-    <col min="9" max="9" width="18.86328125" customWidth="1"/>
-    <col min="10" max="10" width="18.59765625" customWidth="1"/>
-    <col min="11" max="11" width="17.1328125" customWidth="1"/>
-    <col min="12" max="12" width="17.86328125" customWidth="1"/>
-    <col min="13" max="13" width="14.3984375" customWidth="1"/>
-    <col min="14" max="14" width="13.1328125" customWidth="1"/>
+    <col min="4" max="4" width="15.1333333333333" customWidth="1"/>
+    <col min="5" max="5" width="12.4" customWidth="1"/>
+    <col min="6" max="6" width="13.6" customWidth="1"/>
+    <col min="7" max="7" width="13.8666666666667" customWidth="1"/>
+    <col min="8" max="8" width="15.1333333333333" customWidth="1"/>
+    <col min="9" max="9" width="18.8666666666667" customWidth="1"/>
+    <col min="10" max="10" width="18.6" customWidth="1"/>
+    <col min="11" max="11" width="17.1333333333333" customWidth="1"/>
+    <col min="12" max="12" width="17.8666666666667" customWidth="1"/>
+    <col min="13" max="13" width="14.4" customWidth="1"/>
+    <col min="14" max="14" width="13.1333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A1" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A3" s="7">
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
+      <c r="A3" s="5">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>3.5</v>
-      </c>
-      <c r="D3">
-        <v>5</v>
-      </c>
-      <c r="E3">
-        <v>0.1</v>
-      </c>
-      <c r="F3">
-        <v>0.01</v>
-      </c>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="2"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A4" s="7">
+        <v>30</v>
+      </c>
+      <c r="C3" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="D3" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="E3" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="F3" s="6">
+        <v>1</v>
+      </c>
+      <c r="G3" s="6">
+        <v>1</v>
+      </c>
+      <c r="H3" s="6">
+        <v>0.45</v>
+      </c>
+      <c r="I3" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="J3" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="K3" s="6">
+        <v>9</v>
+      </c>
+      <c r="L3" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="M3" s="6">
         <v>2</v>
       </c>
+      <c r="N3" s="6">
+        <v>0.09</v>
+      </c>
+      <c r="O3" s="6">
+        <v>2.1028</v>
+      </c>
+      <c r="P3" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="6">
+        <v>0.103</v>
+      </c>
+      <c r="R3" s="6">
+        <v>10.659857</v>
+      </c>
+      <c r="S3" s="6">
+        <v>0.02056</v>
+      </c>
+      <c r="T3" s="6">
+        <v>200</v>
+      </c>
+      <c r="U3" s="6">
+        <v>20</v>
+      </c>
+      <c r="V3" s="6">
+        <v>0</v>
+      </c>
+      <c r="W3" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
+      <c r="A4" s="5">
+        <v>2</v>
+      </c>
       <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>3.5</v>
-      </c>
-      <c r="D4">
-        <v>5</v>
-      </c>
-      <c r="E4">
-        <v>0.1</v>
-      </c>
-      <c r="F4">
-        <v>0.01</v>
-      </c>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="2"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A5" s="7">
+        <v>30</v>
+      </c>
+      <c r="C4" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="E4" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="F4" s="6">
+        <v>1</v>
+      </c>
+      <c r="G4" s="6">
+        <v>1</v>
+      </c>
+      <c r="H4" s="6">
+        <v>0.45</v>
+      </c>
+      <c r="I4" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="J4" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="K4" s="6">
+        <v>9</v>
+      </c>
+      <c r="L4" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="M4" s="6">
+        <v>2</v>
+      </c>
+      <c r="N4" s="6">
+        <v>0.09</v>
+      </c>
+      <c r="O4" s="6">
+        <v>2.1028</v>
+      </c>
+      <c r="P4" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="6">
+        <v>0.103</v>
+      </c>
+      <c r="R4" s="6">
+        <v>10.659857</v>
+      </c>
+      <c r="S4" s="6">
+        <v>0.02056</v>
+      </c>
+      <c r="T4" s="6">
+        <v>200</v>
+      </c>
+      <c r="U4" s="6">
+        <v>20</v>
+      </c>
+      <c r="V4" s="6">
+        <v>0</v>
+      </c>
+      <c r="W4" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
+      <c r="A5" s="5">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>3.5</v>
-      </c>
-      <c r="D5">
-        <v>5</v>
-      </c>
-      <c r="E5">
-        <v>0.1</v>
-      </c>
-      <c r="F5">
-        <v>0.01</v>
-      </c>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A6" s="7">
+        <v>30</v>
+      </c>
+      <c r="C5" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="E5" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="F5" s="6">
+        <v>1</v>
+      </c>
+      <c r="G5" s="6">
+        <v>1</v>
+      </c>
+      <c r="H5" s="6">
+        <v>0.45</v>
+      </c>
+      <c r="I5" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="J5" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="K5" s="6">
+        <v>9</v>
+      </c>
+      <c r="L5" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="M5" s="6">
+        <v>2</v>
+      </c>
+      <c r="N5" s="6">
+        <v>0.09</v>
+      </c>
+      <c r="O5" s="6">
+        <v>2.1028</v>
+      </c>
+      <c r="P5" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="6">
+        <v>0.103</v>
+      </c>
+      <c r="R5" s="6">
+        <v>10.659857</v>
+      </c>
+      <c r="S5" s="6">
+        <v>0.02056</v>
+      </c>
+      <c r="T5" s="6">
+        <v>200</v>
+      </c>
+      <c r="U5" s="6">
+        <v>20</v>
+      </c>
+      <c r="V5" s="6">
+        <v>0</v>
+      </c>
+      <c r="W5" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
+      <c r="A6" s="5">
         <v>6</v>
       </c>
       <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>3.5</v>
-      </c>
-      <c r="D6">
-        <v>5</v>
-      </c>
-      <c r="E6">
-        <v>0.1</v>
-      </c>
-      <c r="F6">
-        <v>0.01</v>
-      </c>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A7" s="7">
+        <v>30</v>
+      </c>
+      <c r="C6" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="D6" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="E6" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="F6" s="6">
+        <v>1</v>
+      </c>
+      <c r="G6" s="6">
+        <v>1</v>
+      </c>
+      <c r="H6" s="6">
+        <v>0.45</v>
+      </c>
+      <c r="I6" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="J6" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="K6" s="6">
+        <v>9</v>
+      </c>
+      <c r="L6" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="M6" s="6">
+        <v>2</v>
+      </c>
+      <c r="N6" s="6">
+        <v>0.09</v>
+      </c>
+      <c r="O6" s="6">
+        <v>2.1028</v>
+      </c>
+      <c r="P6" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="6">
+        <v>0.103</v>
+      </c>
+      <c r="R6" s="6">
+        <v>10.659857</v>
+      </c>
+      <c r="S6" s="6">
+        <v>0.02056</v>
+      </c>
+      <c r="T6" s="6">
+        <v>200</v>
+      </c>
+      <c r="U6" s="6">
+        <v>20</v>
+      </c>
+      <c r="V6" s="6">
+        <v>0</v>
+      </c>
+      <c r="W6" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
+      <c r="A7" s="5">
         <v>8</v>
       </c>
       <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>3.5</v>
-      </c>
-      <c r="D7">
-        <v>5</v>
-      </c>
-      <c r="E7">
-        <v>0.1</v>
-      </c>
-      <c r="F7">
-        <v>0.01</v>
-      </c>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
+        <v>30</v>
+      </c>
+      <c r="C7" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="D7" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="E7" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="F7" s="6">
+        <v>1</v>
+      </c>
+      <c r="G7" s="6">
+        <v>1</v>
+      </c>
+      <c r="H7" s="6">
+        <v>0.45</v>
+      </c>
+      <c r="I7" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="J7" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="K7" s="6">
+        <v>9</v>
+      </c>
+      <c r="L7" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="M7" s="6">
+        <v>2</v>
+      </c>
+      <c r="N7" s="6">
+        <v>0.09</v>
+      </c>
+      <c r="O7" s="6">
+        <v>2.1028</v>
+      </c>
+      <c r="P7" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="6">
+        <v>0.103</v>
+      </c>
+      <c r="R7" s="6">
+        <v>10.659857</v>
+      </c>
+      <c r="S7" s="6">
+        <v>0.02056</v>
+      </c>
+      <c r="T7" s="6">
+        <v>200</v>
+      </c>
+      <c r="U7" s="6">
+        <v>20</v>
+      </c>
+      <c r="V7" s="6">
+        <v>0</v>
+      </c>
+      <c r="W7" s="7" t="s">
+        <v>17</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64D00B5E-E2E7-41B8-8388-8931D474EA96}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
   <cols>
-    <col min="5" max="5" width="10.1328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.59765625" customWidth="1"/>
+    <col min="5" max="5" width="10.1333333333333" customWidth="1"/>
+    <col min="7" max="7" width="15.6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A1" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A2" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A3" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A4" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A5" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>1</v>
       </c>
@@ -1471,14 +2259,14 @@
         <v>2</v>
       </c>
       <c r="C6">
-        <v>1.9380000000000001E-2</v>
+        <v>0.01938</v>
       </c>
       <c r="D6">
-        <v>5.917E-2</v>
+        <v>0.05917</v>
       </c>
       <c r="E6">
         <f>0.0528</f>
-        <v>5.28E-2</v>
+        <v>0.0528</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1487,7 +2275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>1</v>
       </c>
@@ -1495,14 +2283,14 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>5.4030000000000002E-2</v>
+        <v>0.05403</v>
       </c>
       <c r="D7">
-        <v>0.22303999999999999</v>
+        <v>0.22304</v>
       </c>
       <c r="E7">
         <f>0.0492</f>
-        <v>4.9200000000000001E-2</v>
+        <v>0.0492</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1511,7 +2299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>2</v>
       </c>
@@ -1519,14 +2307,14 @@
         <v>3</v>
       </c>
       <c r="C8">
-        <v>4.6989999999999997E-2</v>
+        <v>0.04699</v>
       </c>
       <c r="D8">
-        <v>0.19797000000000001</v>
+        <v>0.19797</v>
       </c>
       <c r="E8">
         <f>0.0438</f>
-        <v>4.3799999999999999E-2</v>
+        <v>0.0438</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1535,7 +2323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>2</v>
       </c>
@@ -1543,14 +2331,14 @@
         <v>4</v>
       </c>
       <c r="C9">
-        <v>5.8110000000000002E-2</v>
+        <v>0.05811</v>
       </c>
       <c r="D9">
         <v>0.17632</v>
       </c>
       <c r="E9">
         <f>0.034</f>
-        <v>3.4000000000000002E-2</v>
+        <v>0.034</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -1559,7 +2347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>2</v>
       </c>
@@ -1567,14 +2355,14 @@
         <v>5</v>
       </c>
       <c r="C10">
-        <v>5.6950000000000001E-2</v>
+        <v>0.05695</v>
       </c>
       <c r="D10">
-        <v>0.17388000000000001</v>
+        <v>0.17388</v>
       </c>
       <c r="E10">
         <f>0.0346</f>
-        <v>3.4599999999999999E-2</v>
+        <v>0.0346</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -1583,7 +2371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>3</v>
       </c>
@@ -1591,14 +2379,14 @@
         <v>4</v>
       </c>
       <c r="C11">
-        <v>6.701E-2</v>
+        <v>0.06701</v>
       </c>
       <c r="D11">
-        <v>0.17102999999999999</v>
+        <v>0.17103</v>
       </c>
       <c r="E11">
         <f>0.0128</f>
-        <v>1.2800000000000001E-2</v>
+        <v>0.0128</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -1607,7 +2395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7">
       <c r="A12">
         <v>4</v>
       </c>
@@ -1615,10 +2403,10 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>1.3350000000000001E-2</v>
+        <v>0.01335</v>
       </c>
       <c r="D12">
-        <v>4.2110000000000002E-2</v>
+        <v>0.04211</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1630,7 +2418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7">
       <c r="A13">
         <v>4</v>
       </c>
@@ -1650,10 +2438,10 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.97799999999999998</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+        <v>0.978</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14">
         <v>4</v>
       </c>
@@ -1664,7 +2452,7 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.55618000000000001</v>
+        <v>0.55618</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1673,10 +2461,10 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.96899999999999997</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+        <v>0.969</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15">
         <v>5</v>
       </c>
@@ -1687,7 +2475,7 @@
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.25202000000000002</v>
+        <v>0.25202</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1696,10 +2484,10 @@
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.93200000000000005</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+        <v>0.932</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16">
         <v>6</v>
       </c>
@@ -1707,10 +2495,10 @@
         <v>11</v>
       </c>
       <c r="C16">
-        <v>9.4979999999999995E-2</v>
+        <v>0.09498</v>
       </c>
       <c r="D16">
-        <v>0.19889999999999999</v>
+        <v>0.1989</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1722,7 +2510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:7">
       <c r="A17">
         <v>6</v>
       </c>
@@ -1730,10 +2518,10 @@
         <v>12</v>
       </c>
       <c r="C17">
-        <v>0.12291000000000001</v>
+        <v>0.12291</v>
       </c>
       <c r="D17">
-        <v>0.25580999999999998</v>
+        <v>0.25581</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1745,7 +2533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:7">
       <c r="A18">
         <v>6</v>
       </c>
@@ -1753,7 +2541,7 @@
         <v>13</v>
       </c>
       <c r="C18">
-        <v>6.615E-2</v>
+        <v>0.06615</v>
       </c>
       <c r="D18">
         <v>0.13027</v>
@@ -1768,7 +2556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:7">
       <c r="A19">
         <v>7</v>
       </c>
@@ -1791,7 +2579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:7">
       <c r="A20">
         <v>7</v>
       </c>
@@ -1814,7 +2602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:7">
       <c r="A21">
         <v>9</v>
       </c>
@@ -1822,10 +2610,10 @@
         <v>10</v>
       </c>
       <c r="C21">
-        <v>3.1809999999999998E-2</v>
+        <v>0.03181</v>
       </c>
       <c r="D21">
-        <v>8.4500000000000006E-2</v>
+        <v>0.0845</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1837,7 +2625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:7">
       <c r="A22">
         <v>9</v>
       </c>
@@ -1848,7 +2636,7 @@
         <v>0.12711</v>
       </c>
       <c r="D22">
-        <v>0.27038000000000001</v>
+        <v>0.27038</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1860,7 +2648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:7">
       <c r="A23">
         <v>10</v>
       </c>
@@ -1868,10 +2656,10 @@
         <v>11</v>
       </c>
       <c r="C23">
-        <v>8.2049999999999998E-2</v>
+        <v>0.08205</v>
       </c>
       <c r="D23">
-        <v>0.19206999999999999</v>
+        <v>0.19207</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1883,7 +2671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:7">
       <c r="A24">
         <v>12</v>
       </c>
@@ -1891,7 +2679,7 @@
         <v>13</v>
       </c>
       <c r="C24">
-        <v>0.22092000000000001</v>
+        <v>0.22092</v>
       </c>
       <c r="D24">
         <v>0.19988</v>
@@ -1906,7 +2694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:7">
       <c r="A25">
         <v>13</v>
       </c>
@@ -1929,7 +2717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:7">
       <c r="A26">
         <v>9</v>
       </c>
@@ -1937,10 +2725,10 @@
         <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="D26" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="E26">
         <v>0.19</v>
@@ -1953,232 +2741,235 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B0C2B6E-74BD-40FA-8EB6-D64D8C21837A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="7" max="7" width="14.86328125" customWidth="1"/>
+    <col min="7" max="7" width="14.8666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A1" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>34</v>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EB93A31-1E5A-4104-8C10-8E6599437516}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
-    <col min="2" max="2" width="18.59765625" customWidth="1"/>
+    <col min="2" max="2" width="18.6" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="15.86328125" customWidth="1"/>
+    <col min="4" max="4" width="15.8666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A1" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="1">
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="3">
         <f>B3*500</f>
         <v>30000</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" s="2">
+        <v>35</v>
+      </c>
+      <c r="B3" s="4">
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EFCB373-2341-40B6-A375-7BA50357479A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="30.1328125" customWidth="1"/>
+    <col min="1" max="1" width="30.1333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A1" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A2" s="3" t="s">
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="3" t="s">
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="3"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="B7">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>